--- a/biology/Zoologie/Euroscaptor_parvidens/Euroscaptor_parvidens.xlsx
+++ b/biology/Zoologie/Euroscaptor_parvidens/Euroscaptor_parvidens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euroscaptor parvidens est une espèce de mammifères de la famille  des Talpidés (Talpidae). C'est une taupe asiatique.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euroscaptor parvidens est un animal terrestre asiatique.
 On le rencontre uniquement en Chine et au Viêt Nam.
@@ -569,11 +585,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1940 par le zoologiste américain Gerrit Smith Miller Jr (1869-1956)[1].
-Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille des Talpidae ; sous-famille des Talpinae ; tribu des Talpini ; genre Euroscaptor[2].
-Traditionnellement, les espèces de la famille des Talpidae sont classées dans l'ordre des Insectivores (Insectivora), un regroupement qui est progressivement abandonné au XXIe siècle[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1940 par le zoologiste américain Gerrit Smith Miller Jr (1869-1956).
+Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille des Talpidae ; sous-famille des Talpinae ; tribu des Talpini ; genre Euroscaptor.
+Traditionnellement, les espèces de la famille des Talpidae sont classées dans l'ordre des Insectivores (Insectivora), un regroupement qui est progressivement abandonné au XXIe siècle.
 </t>
         </is>
       </c>
